--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravit\eclipse-workspace\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravit\eclipse-workspace\CRM_VTIGER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DE034C-E8C7-4363-A3A4-7BF4FEC04776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F5E37C-D832-4B4E-8B66-37591C1C9573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{3F645E59-A06F-4A2C-81F5-26AA54A5D812}"/>
+    <workbookView xWindow="4790" yWindow="3120" windowWidth="14410" windowHeight="7080" activeTab="1" xr2:uid="{3F645E59-A06F-4A2C-81F5-26AA54A5D812}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Ename</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
     <t>ravi</t>
   </si>
   <si>
@@ -75,12 +72,6 @@
     <t>Org Names</t>
   </si>
   <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
@@ -100,6 +91,27 @@
   </si>
   <si>
     <t>hyderabad</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Pw</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>ewfds</t>
+  </si>
+  <si>
+    <t>mhn</t>
   </si>
 </sst>
 </file>
@@ -457,60 +469,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1888C421-B64D-43B5-8033-2B4547C7DFD6}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>33000</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -522,38 +552,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A64130-87CB-4319-B4A8-8996FA2E3AE9}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -564,60 +596,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42317707-0BCE-4964-8C1A-B8C6085394CD}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
